--- a/artfynd/A 56822-2019.xlsx
+++ b/artfynd/A 56822-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,6 +1074,108 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112379124</v>
+      </c>
+      <c r="B5" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Lortmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>531712</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6622531</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Mikael Hagström</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 56822-2019.xlsx
+++ b/artfynd/A 56822-2019.xlsx
@@ -1079,7 +1079,7 @@
         <v>112379124</v>
       </c>
       <c r="B5" t="n">
-        <v>89503</v>
+        <v>89517</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
